--- a/data_files/Bio Oracle Variables.xlsx
+++ b/data_files/Bio Oracle Variables.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erin_\Documents\Voss Lab (M.S.)\P. astreoides popgen manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erin_\Documents\GitHub\SEFL_Pastreoides_2bRAD\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E0FC40-F853-4BDE-B96A-6648D4885600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3C9D7D-A5C3-4129-9A6D-37FD935C1D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{793B85AB-1308-47BF-A621-4CFF9D50651B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{793B85AB-1308-47BF-A621-4CFF9D50651B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="160">
   <si>
     <t>BO22_calcite</t>
   </si>
@@ -474,6 +475,48 @@
   </si>
   <si>
     <t>Also varied by like 1 C</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Corr w depth</t>
+  </si>
+  <si>
+    <t>Corr w chlo</t>
+  </si>
+  <si>
+    <t>Corr w lat</t>
+  </si>
+  <si>
+    <t>Corr w nitrate</t>
+  </si>
+  <si>
+    <t>Extremely little variation (less than 1C)</t>
+  </si>
+  <si>
+    <t>Varied by less than one ppt</t>
+  </si>
+  <si>
+    <t>Corr w calcite</t>
+  </si>
+  <si>
+    <t>Corr w lat, extremely little variation (less than 1C)</t>
+  </si>
+  <si>
+    <t>Corr w chlo, iron, light bot, nitrate, phosphate, silicate</t>
+  </si>
+  <si>
+    <t>corr w nutrients, redundant w PAR?</t>
+  </si>
+  <si>
+    <t>Corr w a lot of nutrients</t>
+  </si>
+  <si>
+    <t>corr w nitrate</t>
   </si>
 </sst>
 </file>
@@ -510,12 +553,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -530,11 +579,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99428ED-7B2B-470C-B665-3A8A09CD861A}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1187,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D03E29-4A98-4FED-B129-842922AC8E1E}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1604,4 +1654,210 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9037CA69-9773-40D0-A1C3-07B962B27997}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>